--- a/results/2012_reps_by_priority(2).xlsx
+++ b/results/2012_reps_by_priority(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85395E56-6ED9-734B-B445-CFDAB251D65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D10C7B-05BD-B44B-9EF0-B1A77151BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{5A11F4E5-01BB-3449-98F3-60FED6E03608}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_2012_reps_by_priority_2" localSheetId="0">Sheet1!$A$1:$K$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{40D6F355-B333-2341-BD77-D0F7775D35FC}" name="2012_reps_by_priority(2)" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority(2).csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_priority(2).csv" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -576,23 +576,22 @@
   <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
@@ -668,10 +667,10 @@
         <v>0.30769200000000002</v>
       </c>
       <c r="G2" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.15217700000000001</v>
       </c>
       <c r="H2" s="5">
-        <v>0.214286</v>
+        <v>0.223606</v>
       </c>
       <c r="I2" s="5">
         <v>0.1</v>
@@ -716,10 +715,10 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="5">
-        <v>0.111111</v>
+        <v>0.100075</v>
       </c>
       <c r="H3" s="5">
-        <v>0.222222</v>
+        <v>0.21118600000000001</v>
       </c>
       <c r="I3" s="5">
         <v>0.125</v>
@@ -764,10 +763,10 @@
         <v>0.77777799999999997</v>
       </c>
       <c r="G4" s="5">
-        <v>0.107143</v>
+        <v>0.100193</v>
       </c>
       <c r="H4" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>6.4478999999999995E-2</v>
       </c>
       <c r="I4" s="5">
         <v>0.1</v>
@@ -812,10 +811,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>1.7975000000000001E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>9.4897999999999996E-2</v>
       </c>
       <c r="I5" s="5">
         <v>0.1</v>
@@ -860,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>5.4873999999999999E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.5</v>
+        <v>0.44512600000000002</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -908,10 +907,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>6.8859000000000004E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.21171599999999999</v>
       </c>
       <c r="I7" s="5">
         <v>0.16666700000000001</v>
@@ -956,10 +955,10 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.25089099999999998</v>
       </c>
       <c r="H8" s="5">
-        <v>0.16666700000000001</v>
+        <v>8.4223999999999993E-2</v>
       </c>
       <c r="I8" s="5">
         <v>0.2</v>
@@ -1004,10 +1003,10 @@
         <v>0.25</v>
       </c>
       <c r="G9" s="5">
-        <v>0.17647099999999999</v>
+        <v>0.18559400000000001</v>
       </c>
       <c r="H9" s="5">
-        <v>0.235294</v>
+        <v>0.244418</v>
       </c>
       <c r="I9" s="5">
         <v>0.1</v>
@@ -1052,10 +1051,10 @@
         <v>0.272727</v>
       </c>
       <c r="G10" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.15706300000000001</v>
       </c>
       <c r="H10" s="5">
-        <v>0.25</v>
+        <v>0.240396</v>
       </c>
       <c r="I10" s="5">
         <v>0.1</v>
@@ -1100,10 +1099,10 @@
         <v>0.71698099999999998</v>
       </c>
       <c r="G11" s="5">
-        <v>0.12963</v>
+        <v>0.13225600000000001</v>
       </c>
       <c r="H11" s="5">
-        <v>0.111111</v>
+        <v>0.113737</v>
       </c>
       <c r="I11" s="5">
         <v>0.1</v>
@@ -1148,10 +1147,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G12" s="5">
-        <v>0.105263</v>
+        <v>0.13009699999999999</v>
       </c>
       <c r="H12" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>7.7465999999999993E-2</v>
       </c>
       <c r="I12" s="5">
         <v>0.1</v>
@@ -1196,10 +1195,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>8.1081E-2</v>
+        <v>7.2460999999999998E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>0.108108</v>
+        <v>9.9487999999999993E-2</v>
       </c>
       <c r="I13" s="5">
         <v>0.1</v>
@@ -1244,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.3</v>
+        <v>0.32650099999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>0.2</v>
+        <v>0.22650100000000001</v>
       </c>
       <c r="I14" s="5">
         <v>0.111111</v>
@@ -1292,10 +1291,10 @@
         <v>0.27777800000000002</v>
       </c>
       <c r="G15" s="5">
-        <v>0.21052599999999999</v>
+        <v>0.19179399999999999</v>
       </c>
       <c r="H15" s="5">
-        <v>0.263158</v>
+        <v>0.244425</v>
       </c>
       <c r="I15" s="5">
         <v>0.1</v>
@@ -1340,10 +1339,10 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="G16" s="5">
-        <v>7.1429000000000006E-2</v>
+        <v>7.7602000000000004E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>0.107143</v>
+        <v>0.113316</v>
       </c>
       <c r="I16" s="5">
         <v>0.1</v>
@@ -1388,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.157138</v>
       </c>
       <c r="H17" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.32380500000000001</v>
       </c>
       <c r="I17" s="5">
         <v>0.2</v>
@@ -1436,10 +1435,10 @@
         <v>0.222222</v>
       </c>
       <c r="G18" s="5">
-        <v>0.2</v>
+        <v>0.15806300000000001</v>
       </c>
       <c r="H18" s="5">
-        <v>0.3</v>
+        <v>0.25806299999999999</v>
       </c>
       <c r="I18" s="5">
         <v>0.111111</v>
@@ -1484,10 +1483,10 @@
         <v>0.72222200000000003</v>
       </c>
       <c r="G19" s="5">
-        <v>0.145455</v>
+        <v>0.13730700000000001</v>
       </c>
       <c r="H19" s="5">
-        <v>0.127273</v>
+        <v>0.11912499999999999</v>
       </c>
       <c r="I19" s="5">
         <v>0.1</v>
@@ -1532,10 +1531,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G20" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.12731500000000001</v>
       </c>
       <c r="H20" s="5">
-        <v>0.2</v>
+        <v>0.19398199999999999</v>
       </c>
       <c r="I20" s="5">
         <v>0.1</v>
@@ -1580,10 +1579,10 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>8.4695000000000006E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>0.2</v>
+        <v>0.115305</v>
       </c>
       <c r="I21" s="5">
         <v>0.25</v>
@@ -1628,10 +1627,10 @@
         <v>0.875</v>
       </c>
       <c r="G22" s="5">
-        <v>0.222222</v>
+        <v>0.23428499999999999</v>
       </c>
       <c r="H22" s="5">
-        <v>0.111111</v>
+        <v>0.12317400000000001</v>
       </c>
       <c r="I22" s="5">
         <v>0.125</v>
@@ -1676,10 +1675,10 @@
         <v>0.78571400000000002</v>
       </c>
       <c r="G23" s="5">
-        <v>0.103448</v>
+        <v>0.107582</v>
       </c>
       <c r="H23" s="5">
-        <v>6.8966E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="I23" s="5">
         <v>0.1</v>
@@ -1724,10 +1723,10 @@
         <v>0.55555600000000005</v>
       </c>
       <c r="G24" s="5">
-        <v>0.1</v>
+        <v>0.141905</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>4.1904999999999998E-2</v>
       </c>
       <c r="I24" s="5">
         <v>0.111111</v>
@@ -1772,10 +1771,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>1.356E-3</v>
       </c>
       <c r="H25" s="5">
-        <v>0.125</v>
+        <v>0.123644</v>
       </c>
       <c r="I25" s="5">
         <v>0.14285700000000001</v>
@@ -1820,10 +1819,10 @@
         <v>0.35135100000000002</v>
       </c>
       <c r="G26" s="5">
-        <v>5.2631999999999998E-2</v>
+        <v>5.5391999999999997E-2</v>
       </c>
       <c r="H26" s="5">
-        <v>7.8947000000000003E-2</v>
+        <v>8.1707000000000002E-2</v>
       </c>
       <c r="I26" s="5">
         <v>0.1</v>
@@ -1868,10 +1867,10 @@
         <v>0.72727299999999995</v>
       </c>
       <c r="G27" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.142177</v>
       </c>
       <c r="H27" s="5">
-        <v>0.125</v>
+        <v>0.12432</v>
       </c>
       <c r="I27" s="5">
         <v>0.1</v>
@@ -1916,10 +1915,10 @@
         <v>0.222222</v>
       </c>
       <c r="G28" s="5">
-        <v>0.1</v>
+        <v>8.9976E-2</v>
       </c>
       <c r="H28" s="5">
-        <v>0.2</v>
+        <v>0.18997600000000001</v>
       </c>
       <c r="I28" s="5">
         <v>0.111111</v>
@@ -1964,10 +1963,10 @@
         <v>0.375</v>
       </c>
       <c r="G29" s="5">
-        <v>0.111111</v>
+        <v>6.3111E-2</v>
       </c>
       <c r="H29" s="5">
-        <v>0.222222</v>
+        <v>0.17422199999999999</v>
       </c>
       <c r="I29" s="5">
         <v>0.125</v>
@@ -2012,10 +2011,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G30" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.114177</v>
       </c>
       <c r="H30" s="5">
-        <v>0.28571400000000002</v>
+        <v>0.25703399999999998</v>
       </c>
       <c r="I30" s="5">
         <v>0.16666700000000001</v>
@@ -2060,10 +2059,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G31" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>5.0309E-2</v>
       </c>
       <c r="H31" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.116975</v>
       </c>
       <c r="I31" s="5">
         <v>0.1</v>
@@ -2108,10 +2107,10 @@
         <v>0.25</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>2.1174999999999999E-2</v>
       </c>
       <c r="H32" s="5">
-        <v>0.2</v>
+        <v>0.22117500000000001</v>
       </c>
       <c r="I32" s="5">
         <v>0.25</v>
@@ -2156,10 +2155,10 @@
         <v>0.39285700000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>6.8966E-2</v>
+        <v>5.6666000000000001E-2</v>
       </c>
       <c r="H33" s="5">
-        <v>0.103448</v>
+        <v>9.1148999999999994E-2</v>
       </c>
       <c r="I33" s="5">
         <v>0.1</v>
@@ -2204,10 +2203,10 @@
         <v>0.29411799999999999</v>
       </c>
       <c r="G34" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.14637900000000001</v>
       </c>
       <c r="H34" s="5">
-        <v>0.222222</v>
+        <v>0.201934</v>
       </c>
       <c r="I34" s="5">
         <v>0.1</v>
@@ -2252,10 +2251,10 @@
         <v>0.73214299999999999</v>
       </c>
       <c r="G35" s="5">
-        <v>0.140351</v>
+        <v>0.14687600000000001</v>
       </c>
       <c r="H35" s="5">
-        <v>0.122807</v>
+        <v>0.129332</v>
       </c>
       <c r="I35" s="5">
         <v>0.1</v>
@@ -2300,10 +2299,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G36" s="5">
-        <v>0.13333300000000001</v>
+        <v>0.10932</v>
       </c>
       <c r="H36" s="5">
-        <v>0.2</v>
+        <v>0.175987</v>
       </c>
       <c r="I36" s="5">
         <v>0.1</v>
@@ -2348,10 +2347,10 @@
         <v>0.68421100000000001</v>
       </c>
       <c r="G37" s="5">
-        <v>0.15</v>
+        <v>0.14588699999999999</v>
       </c>
       <c r="H37" s="5">
-        <v>0.1</v>
+        <v>9.5887E-2</v>
       </c>
       <c r="I37" s="5">
         <v>0.1</v>
@@ -2396,10 +2395,10 @@
         <v>0.793103</v>
       </c>
       <c r="G38" s="5">
-        <v>0.1</v>
+        <v>0.114479</v>
       </c>
       <c r="H38" s="5">
-        <v>6.6667000000000004E-2</v>
+        <v>8.1145999999999996E-2</v>
       </c>
       <c r="I38" s="5">
         <v>0.1</v>
@@ -2444,10 +2443,10 @@
         <v>0.368421</v>
       </c>
       <c r="G39" s="5">
-        <v>5.1282000000000001E-2</v>
+        <v>3.9197000000000003E-2</v>
       </c>
       <c r="H39" s="5">
-        <v>7.6923000000000005E-2</v>
+        <v>6.4838000000000007E-2</v>
       </c>
       <c r="I39" s="5">
         <v>0.1</v>
@@ -2492,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0.2</v>
+        <v>0.17630199999999999</v>
       </c>
       <c r="H40" s="5">
-        <v>0.4</v>
+        <v>0.37630200000000003</v>
       </c>
       <c r="I40" s="5">
         <v>0.25</v>
@@ -2540,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>0.33333299999999999</v>
+        <v>0.35679100000000002</v>
       </c>
       <c r="H41" s="5">
-        <v>0.16666700000000001</v>
+        <v>0.19012399999999999</v>
       </c>
       <c r="I41" s="5">
         <v>0.2</v>
@@ -2588,10 +2587,10 @@
         <v>0.31578899999999999</v>
       </c>
       <c r="G42" s="5">
-        <v>0.15</v>
+        <v>0.157583</v>
       </c>
       <c r="H42" s="5">
-        <v>0.2</v>
+        <v>0.20758299999999999</v>
       </c>
       <c r="I42" s="5">
         <v>0.1</v>
